--- a/Analytics/SC0/Bookings_sc0.xlsx
+++ b/Analytics/SC0/Bookings_sc0.xlsx
@@ -100,7 +100,7 @@
     <t>SUM("TBookings")</t>
   </si>
   <si>
-    <t>SUM("TBookings") / 30</t>
+    <t>SUM("TBookings") / 38</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
         <v>1700.0</v>
       </c>
       <c r="D2" t="n">
-        <v>56.666666666666664</v>
+        <v>44.73684210526316</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         <v>1650.0</v>
       </c>
       <c r="D3" t="n">
-        <v>55.0</v>
+        <v>43.421052631578945</v>
       </c>
     </row>
     <row r="4">
@@ -510,7 +510,7 @@
         <v>1585.0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.833333333333336</v>
+        <v>41.71052631578947</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         <v>1575.0</v>
       </c>
       <c r="D5" t="n">
-        <v>52.5</v>
+        <v>41.44736842105263</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         <v>1550.0</v>
       </c>
       <c r="D6" t="n">
-        <v>51.666666666666664</v>
+        <v>40.78947368421053</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         <v>1545.0</v>
       </c>
       <c r="D7" t="n">
-        <v>51.5</v>
+        <v>40.6578947368421</v>
       </c>
     </row>
     <row r="8">
@@ -566,7 +566,7 @@
         <v>1530.0</v>
       </c>
       <c r="D8" t="n">
-        <v>51.0</v>
+        <v>40.26315789473684</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>1480.0</v>
       </c>
       <c r="D9" t="n">
-        <v>49.333333333333336</v>
+        <v>38.94736842105263</v>
       </c>
     </row>
     <row r="10">
@@ -594,7 +594,7 @@
         <v>1455.0</v>
       </c>
       <c r="D10" t="n">
-        <v>48.5</v>
+        <v>38.28947368421053</v>
       </c>
     </row>
     <row r="11">
@@ -608,7 +608,7 @@
         <v>1330.0</v>
       </c>
       <c r="D11" t="n">
-        <v>44.333333333333336</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="12">
@@ -622,7 +622,7 @@
         <v>1305.0</v>
       </c>
       <c r="D12" t="n">
-        <v>43.5</v>
+        <v>34.3421052631579</v>
       </c>
     </row>
     <row r="13">
@@ -636,7 +636,7 @@
         <v>1195.0</v>
       </c>
       <c r="D13" t="n">
-        <v>39.833333333333336</v>
+        <v>31.44736842105263</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SC0/Bookings_sc0.xlsx
+++ b/Analytics/SC0/Bookings_sc0.xlsx
@@ -58,40 +58,40 @@
     <t>12</t>
   </si>
   <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
     <t>Motherwell</t>
   </si>
   <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
     <t>St Johnstone</t>
   </si>
   <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
     <t>Rangers</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -168,7 +168,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>865.0</v>
+        <v>390.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,7 +179,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>830.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="4">
@@ -190,7 +190,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>825.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="5">
@@ -201,7 +201,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>820.0</v>
+        <v>295.0</v>
       </c>
     </row>
     <row r="6">
@@ -212,7 +212,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>780.0</v>
+        <v>285.0</v>
       </c>
     </row>
     <row r="7">
@@ -223,7 +223,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>750.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="8">
@@ -234,7 +234,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>750.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="9">
@@ -245,7 +245,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>735.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="10">
@@ -256,7 +256,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>715.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="11">
@@ -267,7 +267,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>655.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="12">
@@ -278,7 +278,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>650.0</v>
+        <v>205.0</v>
       </c>
     </row>
     <row r="13">
@@ -289,7 +289,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>575.0</v>
+        <v>160.0</v>
       </c>
     </row>
   </sheetData>
@@ -319,10 +319,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>935.0</v>
+        <v>395.0</v>
       </c>
     </row>
     <row r="3">
@@ -330,10 +330,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>880.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="4">
@@ -341,10 +341,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>800.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="5">
@@ -352,10 +352,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>780.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="6">
@@ -363,10 +363,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>765.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="7">
@@ -374,10 +374,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>750.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="8">
@@ -385,10 +385,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>745.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="9">
@@ -396,10 +396,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>720.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="10">
@@ -407,10 +407,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>680.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="11">
@@ -418,10 +418,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>650.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="12">
@@ -429,10 +429,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>625.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="13">
@@ -440,10 +440,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>620.0</v>
+        <v>160.0</v>
       </c>
     </row>
   </sheetData>
@@ -476,13 +476,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>1700.0</v>
+        <v>625.0</v>
       </c>
       <c r="D2" t="n">
-        <v>44.73684210526316</v>
+        <v>16.44736842105263</v>
       </c>
     </row>
     <row r="3">
@@ -490,13 +490,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>1650.0</v>
+        <v>605.0</v>
       </c>
       <c r="D3" t="n">
-        <v>43.421052631578945</v>
+        <v>15.921052631578947</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>1585.0</v>
+        <v>600.0</v>
       </c>
       <c r="D4" t="n">
-        <v>41.71052631578947</v>
+        <v>15.789473684210526</v>
       </c>
     </row>
     <row r="5">
@@ -518,13 +518,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.0</v>
+        <v>580.0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.44736842105263</v>
+        <v>15.263157894736842</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>1550.0</v>
+        <v>555.0</v>
       </c>
       <c r="D6" t="n">
-        <v>40.78947368421053</v>
+        <v>14.605263157894736</v>
       </c>
     </row>
     <row r="7">
@@ -546,13 +546,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>1545.0</v>
+        <v>555.0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.6578947368421</v>
+        <v>14.605263157894736</v>
       </c>
     </row>
     <row r="8">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.0</v>
+        <v>550.0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.26315789473684</v>
+        <v>14.473684210526315</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>1480.0</v>
+        <v>535.0</v>
       </c>
       <c r="D9" t="n">
-        <v>38.94736842105263</v>
+        <v>14.078947368421053</v>
       </c>
     </row>
     <row r="10">
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>1455.0</v>
+        <v>510.0</v>
       </c>
       <c r="D10" t="n">
-        <v>38.28947368421053</v>
+        <v>13.421052631578947</v>
       </c>
     </row>
     <row r="11">
@@ -602,13 +602,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>1330.0</v>
+        <v>475.0</v>
       </c>
       <c r="D11" t="n">
-        <v>35.0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12">
@@ -616,13 +616,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>1305.0</v>
+        <v>465.0</v>
       </c>
       <c r="D12" t="n">
-        <v>34.3421052631579</v>
+        <v>12.236842105263158</v>
       </c>
     </row>
     <row r="13">
@@ -630,13 +630,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>1195.0</v>
+        <v>395.0</v>
       </c>
       <c r="D13" t="n">
-        <v>31.44736842105263</v>
+        <v>10.394736842105264</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SC0/Bookings_sc0.xlsx
+++ b/Analytics/SC0/Bookings_sc0.xlsx
@@ -73,6 +73,9 @@
     <t>Dundee</t>
   </si>
   <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
     <t>Ross County</t>
   </si>
   <si>
@@ -85,13 +88,10 @@
     <t>Celtic</t>
   </si>
   <si>
-    <t>Kilmarnock</t>
+    <t>Rangers</t>
   </si>
   <si>
     <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>Rangers</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -168,7 +168,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>390.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,7 +179,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>365.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="4">
@@ -190,7 +190,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>320.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="5">
@@ -234,7 +234,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>255.0</v>
+        <v>275.0</v>
       </c>
     </row>
     <row r="9">
@@ -245,7 +245,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>240.0</v>
+        <v>265.0</v>
       </c>
     </row>
     <row r="10">
@@ -256,7 +256,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>220.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="11">
@@ -267,7 +267,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>215.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="12">
@@ -278,7 +278,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>205.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="13">
@@ -289,7 +289,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>160.0</v>
+        <v>205.0</v>
       </c>
     </row>
   </sheetData>
@@ -319,10 +319,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>395.0</v>
+        <v>435.0</v>
       </c>
     </row>
     <row r="3">
@@ -330,10 +330,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>385.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="4">
@@ -341,7 +341,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>350.0</v>
@@ -352,10 +352,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="6">
@@ -363,10 +363,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>310.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="7">
@@ -374,7 +374,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>300.0</v>
@@ -385,7 +385,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>235.0</v>
@@ -396,10 +396,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>215.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="10">
@@ -407,10 +407,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>200.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="11">
@@ -418,10 +418,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>180.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="12">
@@ -429,10 +429,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>175.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="13">
@@ -476,13 +476,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>625.0</v>
+        <v>675.0</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44736842105263</v>
+        <v>17.763157894736842</v>
       </c>
     </row>
     <row r="3">
@@ -493,10 +493,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>605.0</v>
+        <v>645.0</v>
       </c>
       <c r="D3" t="n">
-        <v>15.921052631578947</v>
+        <v>16.973684210526315</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>600.0</v>
+        <v>620.0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.789473684210526</v>
+        <v>16.31578947368421</v>
       </c>
     </row>
     <row r="5">
@@ -518,13 +518,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>580.0</v>
+        <v>610.0</v>
       </c>
       <c r="D5" t="n">
-        <v>15.263157894736842</v>
+        <v>16.05263157894737</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>555.0</v>
+        <v>595.0</v>
       </c>
       <c r="D6" t="n">
-        <v>14.605263157894736</v>
+        <v>15.657894736842104</v>
       </c>
     </row>
     <row r="7">
@@ -546,13 +546,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>555.0</v>
+        <v>590.0</v>
       </c>
       <c r="D7" t="n">
-        <v>14.605263157894736</v>
+        <v>15.526315789473685</v>
       </c>
     </row>
     <row r="8">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>550.0</v>
+        <v>575.0</v>
       </c>
       <c r="D8" t="n">
-        <v>14.473684210526315</v>
+        <v>15.131578947368421</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>535.0</v>
+        <v>565.0</v>
       </c>
       <c r="D9" t="n">
-        <v>14.078947368421053</v>
+        <v>14.868421052631579</v>
       </c>
     </row>
     <row r="10">
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>510.0</v>
+        <v>560.0</v>
       </c>
       <c r="D10" t="n">
-        <v>13.421052631578947</v>
+        <v>14.736842105263158</v>
       </c>
     </row>
     <row r="11">
@@ -602,13 +602,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>475.0</v>
+        <v>505.0</v>
       </c>
       <c r="D11" t="n">
-        <v>12.5</v>
+        <v>13.289473684210526</v>
       </c>
     </row>
     <row r="12">
@@ -616,13 +616,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>465.0</v>
+        <v>495.0</v>
       </c>
       <c r="D12" t="n">
-        <v>12.236842105263158</v>
+        <v>13.026315789473685</v>
       </c>
     </row>
     <row r="13">
@@ -630,13 +630,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>395.0</v>
+        <v>455.0</v>
       </c>
       <c r="D13" t="n">
-        <v>10.394736842105264</v>
+        <v>11.973684210526315</v>
       </c>
     </row>
   </sheetData>
